--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -16,12 +16,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>https://github.com/jaquadro/NBTExplorer</t>
   </si>
   <si>
+    <t>仅使用</t>
+  </si>
+  <si>
+    <t>Just for use</t>
+  </si>
+  <si>
+    <t>用于查看和编辑.mca文件</t>
+  </si>
+  <si>
+    <t>Used to view and edit.mca files</t>
+  </si>
+  <si>
     <t>https://github.com/ReplayMod/ReplayMod</t>
+  </si>
+  <si>
+    <t>Minecraft Mod</t>
+  </si>
+  <si>
+    <t>https://github.com/anvilproject/client-apis</t>
+  </si>
+  <si>
+    <t>Python Package</t>
+  </si>
+  <si>
+    <t>https://github.com/DonoA/PyAnvilEditor</t>
+  </si>
+  <si>
+    <t>代码参考</t>
+  </si>
+  <si>
+    <t>Reference for cod</t>
+  </si>
+  <si>
+    <t>读取.mca的方法</t>
+  </si>
+  <si>
+    <t>To learn how to edit .mca file</t>
   </si>
 </sst>
 </file>
@@ -29,12 +65,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,37 +87,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,39 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,9 +155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,38 +170,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,16 +427,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,42 +475,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,159 +512,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -999,31 +1031,93 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://github.com/jaquadro/NBTExplorer"/>
     <hyperlink ref="A2" r:id="rId2" display="https://github.com/ReplayMod/ReplayMod"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://github.com/anvilproject/client-apis"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://github.com/DonoA/PyAnvilEditor"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>https://github.com/jaquadro/NBTExplorer</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>To learn how to edit .mca file</t>
+  </si>
+  <si>
+    <t>https://github.com/twoolie/NBT</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>Use in cod</t>
   </si>
 </sst>
 </file>
@@ -65,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +96,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -95,9 +141,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,28 +165,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,28 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -172,45 +197,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,49 +241,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,61 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,67 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,35 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +474,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,6 +509,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -512,17 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,16 +552,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,115 +570,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="48.375" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
@@ -1108,6 +1117,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
@@ -1118,6 +1144,7 @@
     <hyperlink ref="A2" r:id="rId2" display="https://github.com/ReplayMod/ReplayMod"/>
     <hyperlink ref="A3" r:id="rId3" display="https://github.com/anvilproject/client-apis"/>
     <hyperlink ref="A4" r:id="rId4" display="https://github.com/DonoA/PyAnvilEditor"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://github.com/twoolie/NBT"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>https://github.com/jaquadro/NBTExplorer</t>
   </si>
   <si>
-    <t>仅使用</t>
-  </si>
-  <si>
-    <t>Just for use</t>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Just use</t>
   </si>
   <si>
     <t>用于查看和编辑.mca文件</t>
@@ -36,37 +36,46 @@
     <t>https://github.com/ReplayMod/ReplayMod</t>
   </si>
   <si>
-    <t>Minecraft Mod</t>
-  </si>
-  <si>
-    <t>https://github.com/anvilproject/client-apis</t>
-  </si>
-  <si>
-    <t>Python Package</t>
+    <t>mc mod</t>
+  </si>
+  <si>
+    <t>游戏模组</t>
+  </si>
+  <si>
+    <t>Game mod</t>
+  </si>
+  <si>
+    <t>https://github.com/EngineHub/WorldEdit</t>
+  </si>
+  <si>
+    <t>https://github.com/twoolie/NBT</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>Import in cod</t>
+  </si>
+  <si>
+    <t>用于查看和编辑.nbt文件</t>
+  </si>
+  <si>
+    <t>Used to view and edit.nbt files</t>
+  </si>
+  <si>
+    <t>https://github.com/matcool/anvil-parser</t>
   </si>
   <si>
     <t>https://github.com/DonoA/PyAnvilEditor</t>
   </si>
   <si>
-    <t>代码参考</t>
-  </si>
-  <si>
-    <t>Reference for cod</t>
-  </si>
-  <si>
-    <t>读取.mca的方法</t>
-  </si>
-  <si>
-    <t>To learn how to edit .mca file</t>
-  </si>
-  <si>
-    <t>https://github.com/twoolie/NBT</t>
-  </si>
-  <si>
-    <t>pip</t>
-  </si>
-  <si>
-    <t>Use in cod</t>
+    <t>cods</t>
+  </si>
+  <si>
+    <t>Cod reference</t>
+  </si>
+  <si>
+    <t>https://github.com/wensheng/JuicyRaspberryPie</t>
   </si>
 </sst>
 </file>
@@ -96,6 +105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -128,14 +145,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +549,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -552,7 +561,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,7 +570,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,24 +579,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,13 +606,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -615,10 +624,10 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -633,56 +642,56 @@
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +699,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="48.375" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
@@ -1072,60 +1084,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1134,17 +1152,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://github.com/jaquadro/NBTExplorer"/>
     <hyperlink ref="A2" r:id="rId2" display="https://github.com/ReplayMod/ReplayMod"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://github.com/anvilproject/client-apis"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://github.com/DonoA/PyAnvilEditor"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://github.com/twoolie/NBT"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://github.com/DonoA/PyAnvilEditor" tooltip="https://github.com/DonoA/PyAnvilEditor"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://github.com/twoolie/NBT"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://github.com/matcool/anvil-parser" tooltip="https://github.com/matcool/anvil-parser"/>
+    <hyperlink ref="A3" r:id="rId6" display="https://github.com/EngineHub/WorldEdit"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://github.com/wensheng/JuicyRaspberryPie"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
